--- a/실무_엑셀_예제_파일/Chapter08/08-004.xlsx
+++ b/실무_엑셀_예제_파일/Chapter08/08-004.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841102D7-EB9D-41E2-890D-16F3C4B1C6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3B92C7-B181-4B5E-B5B2-4598FADCCB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="756" windowWidth="18456" windowHeight="14220" xr2:uid="{57FEA6E6-8E85-4A83-8E69-E1EF772522FC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{57FEA6E6-8E85-4A83-8E69-E1EF772522FC}"/>
   </bookViews>
   <sheets>
     <sheet name="경제성장률" sheetId="4" r:id="rId1"/>
@@ -193,14 +193,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -209,7 +206,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -224,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -249,6 +246,1188 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>경제성장률!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>경제성장률!$B$7:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015년</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016년</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017년</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018년</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019년</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020년</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>경제성장률!$C$7:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1658020.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1740779.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1835698.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1898192.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1924498.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1933152.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8580-46CD-B845-8B33C8DAAD07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="794345408"/>
+        <c:axId val="794346848"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>경제성장률!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>성장률(%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>경제성장률!$B$7:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015년</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016년</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017년</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018년</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019년</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020년</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>경제성장률!$D$7:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8580-46CD-B845-8B33C8DAAD07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="793085792"/>
+        <c:axId val="793086272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="794345408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="794346848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="794346848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="794345408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="793086272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="793085792"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="793085792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="793086272"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>182217</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>11595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>115956</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>154056</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924AFF8C-170C-3836-61EC-86AC7BBCD0C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -550,107 +1729,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F029C7E3-C2DA-420C-967D-E36ED6B9778D}">
   <dimension ref="B1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" customWidth="1"/>
+    <col min="1" max="1" width="5.4140625" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.9140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="2:4" ht="22.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="4" t="s">
+    <row r="3" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="4"/>
+    <row r="5" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="2:4" s="1" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="2:4" ht="19.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>1658020.4</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>2.8</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="2:4" ht="19.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>1740779.6</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>2.9</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="2:4" ht="19.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>1835698.2</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>3.2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="2:4" ht="19.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>1898192.6</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>2.9</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="2:4" ht="19.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>1924498.1</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>1933152.4</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>-0.9</v>
       </c>
     </row>
@@ -661,5 +1842,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>